--- a/Signals_And_System_BMED/SIGNALS_AND_SYSTEM_BME_Attenance_Fourth_Semester_2024.xlsx
+++ b/Signals_And_System_BMED/SIGNALS_AND_SYSTEM_BME_Attenance_Fourth_Semester_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\OneDrive - BUET Khuzdar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="100">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -578,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -652,13 +652,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1034,9 +1027,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,10 +1108,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,37 +1132,37 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1189,8 +1179,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,15 +1201,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1245,68 +1250,53 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1346,7 +1336,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1394,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1452,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1510,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,8 +1814,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1834,9 +1824,9 @@
     <col min="2" max="2" width="14.296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.3984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.69921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="12" width="4.69921875" style="4" customWidth="1"/>
     <col min="13" max="13" width="3.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.8984375" style="4" customWidth="1"/>
@@ -1846,198 +1836,198 @@
     <row r="1" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:29" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:29" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="81" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
     </row>
     <row r="9" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -2048,17 +2038,17 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -2073,23 +2063,25 @@
       <c r="F10" s="23">
         <v>19</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="74" t="s">
+      <c r="G10" s="23">
+        <v>26</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="76" t="s">
+      <c r="O10" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="85"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
@@ -2102,19 +2094,21 @@
       <c r="F11" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="77"/>
+      <c r="G11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="81"/>
     </row>
     <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="24" t="s">
         <v>9</v>
       </c>
@@ -2127,7 +2121,9 @@
       <c r="F12" s="19">
         <v>3</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="19">
+        <v>3</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -2135,7 +2131,7 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O12" s="26">
         <f>(N12/$N$12)*100</f>
@@ -2143,44 +2139,46 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="84"/>
     </row>
     <row r="14" spans="1:29" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="33">
-        <v>3</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D14" s="32">
+        <v>3</v>
+      </c>
+      <c r="E14" s="32">
         <v>3</v>
       </c>
       <c r="F14" s="13">
         <v>3</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>3</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="15"/>
@@ -2188,8 +2186,8 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="20">
-        <f>SUM(D14:M14)</f>
-        <v>9</v>
+        <f t="shared" ref="N14:N41" si="0">SUM(D14:M14)</f>
+        <v>12</v>
       </c>
       <c r="O14" s="21">
         <f>(N14/$N$12)*$O$12</f>
@@ -2200,22 +2198,24 @@
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="33">
-        <v>3</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32">
         <v>3</v>
       </c>
       <c r="F15" s="13">
         <v>3</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13">
+        <v>3</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -2223,11 +2223,11 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="20">
-        <f>SUM(D15:M15)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" ref="O15:O41" si="0">(N15/$N$12)*$O$12</f>
+        <f t="shared" ref="O15:O41" si="1">(N15/$N$12)*$O$12</f>
         <v>100</v>
       </c>
     </row>
@@ -2235,22 +2235,24 @@
       <c r="A16" s="30">
         <v>3</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="33">
-        <v>3</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D16" s="32">
+        <v>3</v>
+      </c>
+      <c r="E16" s="32">
         <v>3</v>
       </c>
       <c r="F16" s="13">
         <v>3</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2258,11 +2260,11 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="20">
-        <f>SUM(D16:M16)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2270,22 +2272,24 @@
       <c r="A17" s="30">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="33">
-        <v>3</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="32">
+        <v>3</v>
+      </c>
+      <c r="E17" s="32">
         <v>3</v>
       </c>
       <c r="F17" s="13">
         <v>3</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -2293,8 +2297,8 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="20">
-        <f>SUM(D17:M17)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O17" s="21">
         <f>(N17/$N$12)*$O$12</f>
@@ -2305,22 +2309,24 @@
       <c r="A18" s="30">
         <v>5</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="33">
-        <v>3</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D18" s="32">
+        <v>3</v>
+      </c>
+      <c r="E18" s="32">
         <v>3</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>3</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -2328,11 +2334,11 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="20">
-        <f>SUM(D18:M18)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2340,22 +2346,24 @@
       <c r="A19" s="30">
         <v>6</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="33">
-        <v>3</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D19" s="32">
+        <v>3</v>
+      </c>
+      <c r="E19" s="32">
         <v>3</v>
       </c>
       <c r="F19" s="13">
         <v>3</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2363,11 +2371,11 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="20">
-        <f>SUM(D19:M19)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2375,22 +2383,24 @@
       <c r="A20" s="30">
         <v>7</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="33">
-        <v>3</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="D20" s="32">
+        <v>3</v>
+      </c>
+      <c r="E20" s="32">
         <v>3</v>
       </c>
       <c r="F20" s="13">
         <v>3</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13">
+        <v>3</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2398,11 +2408,11 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="20">
-        <f>SUM(D20:M20)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2410,22 +2420,24 @@
       <c r="A21" s="30">
         <v>8</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="33">
-        <v>3</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="D21" s="32">
+        <v>3</v>
+      </c>
+      <c r="E21" s="32">
         <v>3</v>
       </c>
       <c r="F21" s="13">
         <v>3</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13">
+        <v>3</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2433,11 +2445,11 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="20">
-        <f>SUM(D21:M21)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2445,22 +2457,24 @@
       <c r="A22" s="30">
         <v>9</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="33">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
         <v>0</v>
       </c>
       <c r="F22" s="13">
         <v>0</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -2468,11 +2482,11 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="20">
-        <f>SUM(D22:M22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O22" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2480,22 +2494,24 @@
       <c r="A23" s="30">
         <v>10</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
         <v>0</v>
       </c>
       <c r="F23" s="13">
         <v>0</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2503,11 +2519,11 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="20">
-        <f>SUM(D23:M23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O23" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2515,22 +2531,24 @@
       <c r="A24" s="30">
         <v>11</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="33">
-        <v>3</v>
-      </c>
-      <c r="E24" s="33">
+      <c r="D24" s="32">
+        <v>3</v>
+      </c>
+      <c r="E24" s="32">
         <v>3</v>
       </c>
       <c r="F24" s="13">
         <v>3</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13">
+        <v>3</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2538,11 +2556,11 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="20">
-        <f>SUM(D24:M24)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2550,22 +2568,24 @@
       <c r="A25" s="30">
         <v>12</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="33">
-        <v>3</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="32">
+        <v>3</v>
+      </c>
+      <c r="E25" s="32">
         <v>3</v>
       </c>
       <c r="F25" s="13">
         <v>0</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>3</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -2573,34 +2593,36 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="20">
-        <f>SUM(D25:M25)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="30">
         <v>13</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="33">
-        <v>3</v>
-      </c>
-      <c r="E26" s="33">
+      <c r="D26" s="32">
+        <v>3</v>
+      </c>
+      <c r="E26" s="32">
         <v>3</v>
       </c>
       <c r="F26" s="13">
         <v>0</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>3</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -2608,34 +2630,36 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="20">
-        <f>SUM(D26:M26)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30">
         <v>14</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="33">
-        <v>0</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
         <v>0</v>
       </c>
       <c r="F27" s="13">
         <v>3</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13">
+        <v>3</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -2643,34 +2667,36 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="20">
-        <f>SUM(D27:M27)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="30">
         <v>15</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="33">
-        <v>3</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="32">
+        <v>3</v>
+      </c>
+      <c r="E28" s="32">
         <v>3</v>
       </c>
       <c r="F28" s="13">
         <v>3</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13">
+        <v>3</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -2678,11 +2704,11 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="20">
-        <f>SUM(D28:M28)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2690,22 +2716,24 @@
       <c r="A29" s="30">
         <v>16</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="33">
-        <v>3</v>
-      </c>
-      <c r="E29" s="33">
+      <c r="D29" s="32">
+        <v>3</v>
+      </c>
+      <c r="E29" s="32">
         <v>3</v>
       </c>
       <c r="F29" s="13">
         <v>3</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="13">
+        <v>3</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -2713,11 +2741,11 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="20">
-        <f>SUM(D29:M29)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2725,22 +2753,24 @@
       <c r="A30" s="30">
         <v>17</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="33">
-        <v>3</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D30" s="32">
+        <v>3</v>
+      </c>
+      <c r="E30" s="32">
         <v>3</v>
       </c>
       <c r="F30" s="13">
         <v>3</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13">
+        <v>3</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -2748,11 +2778,11 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="20">
-        <f>SUM(D30:M30)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2760,22 +2790,24 @@
       <c r="A31" s="30">
         <v>18</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="33">
-        <v>3</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="32">
+        <v>3</v>
+      </c>
+      <c r="E31" s="32">
         <v>3</v>
       </c>
       <c r="F31" s="13">
         <v>3</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13">
+        <v>3</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -2783,11 +2815,11 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="20">
-        <f>SUM(D31:M31)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2795,22 +2827,24 @@
       <c r="A32" s="30">
         <v>19</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="33">
-        <v>3</v>
-      </c>
-      <c r="E32" s="33">
+      <c r="D32" s="32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="32">
         <v>3</v>
       </c>
       <c r="F32" s="13">
         <v>3</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="13">
+        <v>3</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -2818,11 +2852,11 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="20">
-        <f>SUM(D32:M32)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O32" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2830,22 +2864,24 @@
       <c r="A33" s="30">
         <v>20</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="33">
-        <v>3</v>
-      </c>
-      <c r="E33" s="33">
+      <c r="D33" s="32">
+        <v>3</v>
+      </c>
+      <c r="E33" s="32">
         <v>3</v>
       </c>
       <c r="F33" s="13">
         <v>3</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="13">
+        <v>3</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -2853,11 +2889,11 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="20">
-        <f>SUM(D33:M33)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O33" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2865,22 +2901,24 @@
       <c r="A34" s="30">
         <v>21</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="33">
-        <v>3</v>
-      </c>
-      <c r="E34" s="33">
+      <c r="D34" s="32">
+        <v>3</v>
+      </c>
+      <c r="E34" s="32">
         <v>3</v>
       </c>
       <c r="F34" s="13">
         <v>3</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13">
+        <v>3</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -2888,11 +2926,11 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="20">
-        <f>SUM(D34:M34)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2900,22 +2938,24 @@
       <c r="A35" s="30">
         <v>22</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="33">
-        <v>0</v>
-      </c>
-      <c r="E35" s="33">
+      <c r="D35" s="32">
+        <v>0</v>
+      </c>
+      <c r="E35" s="32">
         <v>0</v>
       </c>
       <c r="F35" s="13">
         <v>3</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="13">
+        <v>3</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -2923,34 +2963,36 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="20">
-        <f>SUM(D35:M35)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="30">
         <v>23</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="33">
-        <v>0</v>
-      </c>
-      <c r="E36" s="33">
+      <c r="D36" s="32">
+        <v>0</v>
+      </c>
+      <c r="E36" s="32">
         <v>0</v>
       </c>
       <c r="F36" s="13">
         <v>3</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="13">
+        <v>3</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -2958,34 +3000,36 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="20">
-        <f>SUM(D36:M36)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="30">
         <v>24</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="33">
-        <v>3</v>
-      </c>
-      <c r="E37" s="33">
+      <c r="D37" s="32">
+        <v>3</v>
+      </c>
+      <c r="E37" s="32">
         <v>3</v>
       </c>
       <c r="F37" s="13">
         <v>3</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13">
+        <v>3</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -2993,11 +3037,11 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="20">
-        <f>SUM(D37:M37)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O37" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3005,22 +3049,24 @@
       <c r="A38" s="30">
         <v>25</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="33">
-        <v>0</v>
-      </c>
-      <c r="E38" s="33">
+      <c r="D38" s="32">
+        <v>0</v>
+      </c>
+      <c r="E38" s="32">
         <v>0</v>
       </c>
       <c r="F38" s="13">
         <v>0</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -3028,11 +3074,11 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="20">
-        <f>SUM(D38:M38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,22 +3086,24 @@
       <c r="A39" s="30">
         <v>26</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="33">
-        <v>0</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="D39" s="32">
+        <v>0</v>
+      </c>
+      <c r="E39" s="32">
         <v>0</v>
       </c>
       <c r="F39" s="13">
         <v>0</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3063,11 +3111,11 @@
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="20">
-        <f>SUM(D39:M39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O39" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3075,69 +3123,73 @@
       <c r="A40" s="30">
         <v>27</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="33">
-        <v>0</v>
-      </c>
-      <c r="E40" s="33">
+      <c r="D40" s="32">
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
         <v>0</v>
       </c>
       <c r="F40" s="13">
         <v>3</v>
       </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
+      <c r="G40" s="13">
+        <v>3</v>
+      </c>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
       <c r="N40" s="20">
-        <f>SUM(D40:M40)</f>
-        <v>3</v>
-      </c>
-      <c r="O40" s="63">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O40" s="62">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="30">
         <v>28</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="33">
-        <v>3</v>
-      </c>
-      <c r="E41" s="33">
+      <c r="D41" s="32">
+        <v>3</v>
+      </c>
+      <c r="E41" s="32">
         <v>3</v>
       </c>
       <c r="F41" s="13">
         <v>3</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="13">
+        <v>3</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="58">
-        <f>SUM(D41:M41)</f>
-        <v>9</v>
-      </c>
-      <c r="O41" s="64">
-        <f t="shared" si="0"/>
+      <c r="N41" s="57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O41" s="63">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3154,20 +3206,20 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="82"/>
+      <c r="D43" s="69"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="82" t="s">
+      <c r="H43" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -3187,12 +3239,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:M4"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="D13:O13"/>
@@ -3202,11 +3253,12 @@
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3248,298 +3300,298 @@
     <row r="1" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
     </row>
     <row r="3" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="39" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="73" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="81" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="72" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="73" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
     </row>
     <row r="7" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="73" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
     </row>
     <row r="8" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="72" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="83" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
     </row>
     <row r="9" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
     </row>
     <row r="10" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="54"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3568,41 +3620,41 @@
       <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="66">
         <v>6</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <v>13</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="66">
         <v>20</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="66">
         <v>31</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="91" t="s">
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="91" t="s">
+      <c r="X11" s="89" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3612,27 +3664,27 @@
       <c r="C12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
     </row>
     <row r="13" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="90"/>
@@ -3640,42 +3692,42 @@
       <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="67">
-        <v>4</v>
-      </c>
-      <c r="E13" s="67">
-        <v>3</v>
-      </c>
-      <c r="F13" s="67">
-        <v>4</v>
-      </c>
-      <c r="G13" s="67">
-        <v>3</v>
-      </c>
-      <c r="H13" s="67">
-        <v>4</v>
-      </c>
-      <c r="I13" s="67">
-        <v>4</v>
-      </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="58">
+      <c r="D13" s="66">
+        <v>4</v>
+      </c>
+      <c r="E13" s="66">
+        <v>3</v>
+      </c>
+      <c r="F13" s="66">
+        <v>4</v>
+      </c>
+      <c r="G13" s="66">
+        <v>3</v>
+      </c>
+      <c r="H13" s="66">
+        <v>4</v>
+      </c>
+      <c r="I13" s="66">
+        <v>4</v>
+      </c>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="57">
         <f>SUM(D13:V13)</f>
         <v>22</v>
       </c>
-      <c r="X13" s="59">
+      <c r="X13" s="58">
         <v>100</v>
       </c>
     </row>
@@ -3705,16 +3757,16 @@
       <c r="U14" s="90"/>
       <c r="V14" s="90"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="59"/>
+      <c r="X14" s="58"/>
     </row>
     <row r="15" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="13">
@@ -3748,11 +3800,11 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
-      <c r="W15" s="58">
+      <c r="W15" s="57">
         <f t="shared" ref="W15:W42" si="0">SUM(D15:V15)</f>
         <v>22</v>
       </c>
-      <c r="X15" s="59">
+      <c r="X15" s="58">
         <f t="shared" ref="X15:X42" si="1">(W15/$W$13)*$X$13</f>
         <v>100</v>
       </c>
@@ -3761,10 +3813,10 @@
       <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="13">
@@ -3798,11 +3850,11 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="58">
+      <c r="W16" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3811,10 +3863,10 @@
       <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="13">
@@ -3848,11 +3900,11 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="58">
+      <c r="W17" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3861,10 +3913,10 @@
       <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="13">
@@ -3898,11 +3950,11 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="58">
+      <c r="W18" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X18" s="59">
+      <c r="X18" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3911,10 +3963,10 @@
       <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="13">
@@ -3948,11 +4000,11 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="58">
+      <c r="W19" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X19" s="59">
+      <c r="X19" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3961,10 +4013,10 @@
       <c r="A20" s="8">
         <v>6</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="13">
@@ -3998,11 +4050,11 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
-      <c r="W20" s="58">
+      <c r="W20" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X20" s="59">
+      <c r="X20" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4011,10 +4063,10 @@
       <c r="A21" s="8">
         <v>7</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="13">
@@ -4048,11 +4100,11 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
-      <c r="W21" s="58">
+      <c r="W21" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X21" s="59">
+      <c r="X21" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4061,10 +4113,10 @@
       <c r="A22" s="8">
         <v>8</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="13">
@@ -4098,11 +4150,11 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="58">
+      <c r="W22" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X22" s="59">
+      <c r="X22" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4111,10 +4163,10 @@
       <c r="A23" s="8">
         <v>9</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="13">
@@ -4148,11 +4200,11 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="58">
+      <c r="W23" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X23" s="59">
+      <c r="X23" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4161,10 +4213,10 @@
       <c r="A24" s="8">
         <v>10</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="13">
@@ -4198,11 +4250,11 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
-      <c r="W24" s="58">
+      <c r="W24" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="X24" s="59">
+      <c r="X24" s="58">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
@@ -4211,10 +4263,10 @@
       <c r="A25" s="8">
         <v>11</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="13">
@@ -4248,11 +4300,11 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="58">
+      <c r="W25" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X25" s="59">
+      <c r="X25" s="58">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -4261,10 +4313,10 @@
       <c r="A26" s="8">
         <v>12</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="13">
@@ -4298,11 +4350,11 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="58">
+      <c r="W26" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X26" s="59">
+      <c r="X26" s="58">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -4311,10 +4363,10 @@
       <c r="A27" s="8">
         <v>13</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="13">
@@ -4348,11 +4400,11 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="58">
+      <c r="W27" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X27" s="59">
+      <c r="X27" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4361,10 +4413,10 @@
       <c r="A28" s="8">
         <v>14</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="13">
@@ -4398,11 +4450,11 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
-      <c r="W28" s="58">
+      <c r="W28" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X28" s="59">
+      <c r="X28" s="58">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -4411,10 +4463,10 @@
       <c r="A29" s="8">
         <v>15</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="13">
@@ -4448,11 +4500,11 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
-      <c r="W29" s="58">
+      <c r="W29" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X29" s="59">
+      <c r="X29" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4461,10 +4513,10 @@
       <c r="A30" s="8">
         <v>16</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="13">
@@ -4498,11 +4550,11 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-      <c r="W30" s="58">
+      <c r="W30" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X30" s="59">
+      <c r="X30" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4511,10 +4563,10 @@
       <c r="A31" s="8">
         <v>17</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="13">
@@ -4548,11 +4600,11 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="58">
+      <c r="W31" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X31" s="59">
+      <c r="X31" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4561,10 +4613,10 @@
       <c r="A32" s="8">
         <v>18</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="13">
@@ -4598,11 +4650,11 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
-      <c r="W32" s="58">
+      <c r="W32" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X32" s="59">
+      <c r="X32" s="58">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -4611,10 +4663,10 @@
       <c r="A33" s="8">
         <v>19</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="13">
@@ -4648,11 +4700,11 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
-      <c r="W33" s="58">
+      <c r="W33" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X33" s="59">
+      <c r="X33" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4661,10 +4713,10 @@
       <c r="A34" s="8">
         <v>20</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="13">
@@ -4698,11 +4750,11 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
-      <c r="W34" s="58">
+      <c r="W34" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X34" s="59">
+      <c r="X34" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4711,10 +4763,10 @@
       <c r="A35" s="8">
         <v>21</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="13">
@@ -4748,11 +4800,11 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
-      <c r="W35" s="58">
+      <c r="W35" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X35" s="59">
+      <c r="X35" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4761,10 +4813,10 @@
       <c r="A36" s="8">
         <v>22</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="13">
@@ -4798,11 +4850,11 @@
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
-      <c r="W36" s="58">
+      <c r="W36" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X36" s="59">
+      <c r="X36" s="58">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -4811,10 +4863,10 @@
       <c r="A37" s="8">
         <v>23</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="13">
@@ -4848,11 +4900,11 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="58">
+      <c r="W37" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X37" s="59">
+      <c r="X37" s="58">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -4861,10 +4913,10 @@
       <c r="A38" s="8">
         <v>24</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="13">
@@ -4898,11 +4950,11 @@
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="58">
+      <c r="W38" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X38" s="59">
+      <c r="X38" s="58">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -4911,10 +4963,10 @@
       <c r="A39" s="8">
         <v>25</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>76</v>
       </c>
       <c r="D39" s="13">
@@ -4948,11 +5000,11 @@
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
-      <c r="W39" s="58">
+      <c r="W39" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="X39" s="59">
+      <c r="X39" s="58">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
@@ -4961,10 +5013,10 @@
       <c r="A40" s="8">
         <v>26</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="13">
@@ -4998,11 +5050,11 @@
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
-      <c r="W40" s="58">
+      <c r="W40" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X40" s="59">
+      <c r="X40" s="58">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -5011,10 +5063,10 @@
       <c r="A41" s="8">
         <v>27</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="13">
@@ -5048,11 +5100,11 @@
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
-      <c r="W41" s="58">
+      <c r="W41" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X41" s="59">
+      <c r="X41" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5061,10 +5113,10 @@
       <c r="A42" s="8">
         <v>28</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="13">
@@ -5098,11 +5150,11 @@
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="58">
+      <c r="W42" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X42" s="59">
+      <c r="X42" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5110,7 +5162,7 @@
     <row r="43" spans="1:27" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="65"/>
+      <c r="E43" s="64"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -5129,11 +5181,11 @@
       <c r="AA43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="66"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="65"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -5147,10 +5199,10 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="57" t="s">
+      <c r="U44" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="V44" s="57"/>
+      <c r="V44" s="56"/>
       <c r="AA44" s="15"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.35">
@@ -5329,11 +5381,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:V8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:V4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:V14"/>
@@ -5343,11 +5395,11 @@
     <mergeCell ref="F6:V6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:V7"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:V4"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:V8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -5391,200 +5443,200 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="81" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="72" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="72" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -5603,10 +5655,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="75" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -5623,16 +5675,16 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="74" t="s">
+      <c r="O10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="85"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
@@ -5647,12 +5699,12 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="77"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="24" t="s">
         <v>9</v>
       </c>
@@ -5676,38 +5728,38 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -5729,15 +5781,15 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -5759,15 +5811,15 @@
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -5789,15 +5841,15 @@
       <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -5819,15 +5871,15 @@
       <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -5849,15 +5901,15 @@
       <c r="A19" s="8">
         <v>6</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -5879,15 +5931,15 @@
       <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -5909,15 +5961,15 @@
       <c r="A21" s="8">
         <v>8</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -5939,15 +5991,15 @@
       <c r="A22" s="8">
         <v>9</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -5969,15 +6021,15 @@
       <c r="A23" s="8">
         <v>10</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -5999,15 +6051,15 @@
       <c r="A24" s="8">
         <v>11</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -6029,15 +6081,15 @@
       <c r="A25" s="8">
         <v>12</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -6059,15 +6111,15 @@
       <c r="A26" s="8">
         <v>13</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -6089,15 +6141,15 @@
       <c r="A27" s="8">
         <v>14</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -6119,15 +6171,15 @@
       <c r="A28" s="8">
         <v>15</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -6149,15 +6201,15 @@
       <c r="A29" s="8">
         <v>16</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -6179,15 +6231,15 @@
       <c r="A30" s="8">
         <v>17</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -6209,15 +6261,15 @@
       <c r="A31" s="8">
         <v>18</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -6239,15 +6291,15 @@
       <c r="A32" s="8">
         <v>19</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -6269,15 +6321,15 @@
       <c r="A33" s="8">
         <v>20</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -6299,15 +6351,15 @@
       <c r="A34" s="8">
         <v>21</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -6329,15 +6381,15 @@
       <c r="A35" s="8">
         <v>22</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -6359,15 +6411,15 @@
       <c r="A36" s="8">
         <v>23</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -6389,15 +6441,15 @@
       <c r="A37" s="8">
         <v>24</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -6419,15 +6471,15 @@
       <c r="A38" s="8">
         <v>25</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -6449,15 +6501,15 @@
       <c r="A39" s="8">
         <v>26</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -6479,15 +6531,15 @@
       <c r="A40" s="8">
         <v>27</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -6509,15 +6561,15 @@
       <c r="A41" s="8">
         <v>28</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -6539,11 +6591,11 @@
       <c r="A42" s="8">
         <v>29</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -6565,11 +6617,11 @@
       <c r="A43" s="8">
         <v>30</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -6591,11 +6643,11 @@
       <c r="A44" s="8">
         <v>31</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -6617,11 +6669,11 @@
       <c r="A45" s="8">
         <v>32</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -6643,11 +6695,11 @@
       <c r="A46" s="8">
         <v>33</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -6669,11 +6721,11 @@
       <c r="A47" s="8">
         <v>34</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
@@ -6697,9 +6749,9 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -6723,9 +6775,9 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -6749,9 +6801,9 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -6775,9 +6827,9 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -6801,9 +6853,9 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -6827,9 +6879,9 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -6853,9 +6905,9 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -6879,9 +6931,9 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -6905,9 +6957,9 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -6931,9 +6983,9 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -6957,9 +7009,9 @@
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -6983,9 +7035,9 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -7009,9 +7061,9 @@
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
@@ -7035,9 +7087,9 @@
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -7061,9 +7113,9 @@
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -7087,9 +7139,9 @@
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
@@ -7113,9 +7165,9 @@
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
@@ -7139,9 +7191,9 @@
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
@@ -7165,9 +7217,9 @@
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
@@ -7191,9 +7243,9 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -7217,9 +7269,9 @@
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
@@ -7243,9 +7295,9 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
@@ -7269,9 +7321,9 @@
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
@@ -7295,9 +7347,9 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
@@ -7321,9 +7373,9 @@
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
@@ -7347,9 +7399,9 @@
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
@@ -7373,9 +7425,9 @@
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
@@ -7399,9 +7451,9 @@
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
@@ -7425,9 +7477,9 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
@@ -7459,10 +7511,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="82"/>
+      <c r="D78" s="69"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -7470,10 +7522,10 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="82" t="s">
+      <c r="M78" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N78" s="82"/>
+      <c r="N78" s="69"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -7508,12 +7560,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -7523,11 +7574,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -7569,96 +7621,96 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -7671,89 +7723,89 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="92" t="s">
+      <c r="B9" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="99" t="str">
+      <c r="D9" s="101" t="str">
         <f>August!E5</f>
         <v>August 2024</v>
       </c>
-      <c r="E9" s="99" t="str">
+      <c r="E9" s="101" t="str">
         <f>October!F5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="99" t="str">
+      <c r="F9" s="101" t="str">
         <f>'November &amp; December'!E5</f>
         <v>November/December 2023</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="92" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="102"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <f>August!N12</f>
-        <v>9</v>
-      </c>
-      <c r="E11" s="42">
+        <v>12</v>
+      </c>
+      <c r="E11" s="41">
         <f>October!W13</f>
         <v>22</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <f>'November &amp; December'!O12</f>
         <v>0</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <f t="shared" ref="G11:G39" si="0">SUM(D11:F11)</f>
-        <v>31</v>
-      </c>
-      <c r="H11" s="44">
+        <v>34</v>
+      </c>
+      <c r="H11" s="43">
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="102"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="13">
         <f>August!N14</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
         <f>October!W15</f>
@@ -7765,7 +7817,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12" s="28">
         <f t="shared" ref="H12:H39" si="1">(G12/$G$11)*100</f>
@@ -7780,15 +7832,15 @@
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="13">
         <f>August!N15</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13">
         <f>October!W16</f>
@@ -7800,7 +7852,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="1"/>
@@ -7815,15 +7867,15 @@
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="13">
         <f>August!N16</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13">
         <f>October!W17</f>
@@ -7835,7 +7887,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H14" s="28">
         <f t="shared" si="1"/>
@@ -7850,15 +7902,15 @@
       <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="13">
         <f>August!N17</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" s="13">
         <f>October!W18</f>
@@ -7870,7 +7922,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H15" s="28">
         <f t="shared" si="1"/>
@@ -7885,15 +7937,15 @@
       <c r="A16" s="8">
         <v>5</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="13">
         <f>August!N18</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16" s="13">
         <f>October!W19</f>
@@ -7905,7 +7957,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H16" s="28">
         <f t="shared" si="1"/>
@@ -7920,15 +7972,15 @@
       <c r="A17" s="8">
         <v>6</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="13">
         <f>August!N19</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" s="13">
         <f>October!W20</f>
@@ -7940,7 +7992,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17" s="28">
         <f t="shared" si="1"/>
@@ -7955,15 +8007,15 @@
       <c r="A18" s="8">
         <v>7</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="13">
         <f>August!N20</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" s="13">
         <f>October!W21</f>
@@ -7975,7 +8027,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18" s="28">
         <f t="shared" si="1"/>
@@ -7990,15 +8042,15 @@
       <c r="A19" s="8">
         <v>8</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="13">
         <f>August!N21</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19" s="13">
         <f>October!W22</f>
@@ -8010,7 +8062,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19" s="28">
         <f t="shared" si="1"/>
@@ -8025,10 +8077,10 @@
       <c r="A20" s="8">
         <v>9</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="13">
@@ -8049,7 +8101,7 @@
       </c>
       <c r="H20" s="28">
         <f t="shared" si="1"/>
-        <v>70.967741935483872</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="I20" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8060,10 +8112,10 @@
       <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="13">
@@ -8084,7 +8136,7 @@
       </c>
       <c r="H21" s="28">
         <f t="shared" si="1"/>
-        <v>51.612903225806448</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="I21" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8095,15 +8147,15 @@
       <c r="A22" s="8">
         <v>11</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="13">
         <f>August!N24</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22" s="13">
         <f>October!W25</f>
@@ -8115,11 +8167,11 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H22" s="28">
         <f t="shared" si="1"/>
-        <v>90.322580645161281</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="I22" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8130,15 +8182,15 @@
       <c r="A23" s="8">
         <v>12</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="13">
         <f>August!N25</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23" s="13">
         <f>October!W26</f>
@@ -8150,11 +8202,11 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H23" s="28">
         <f t="shared" si="1"/>
-        <v>80.645161290322577</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="I23" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8165,15 +8217,15 @@
       <c r="A24" s="8">
         <v>13</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="13">
         <f>August!N26</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E24" s="13">
         <f>October!W27</f>
@@ -8185,11 +8237,11 @@
       </c>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H24" s="28">
         <f t="shared" si="1"/>
-        <v>90.322580645161281</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="I24" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8200,15 +8252,15 @@
       <c r="A25" s="8">
         <v>14</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="13">
         <f>August!N27</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="13">
         <f>October!W28</f>
@@ -8220,11 +8272,11 @@
       </c>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H25" s="28">
         <f t="shared" si="1"/>
-        <v>67.741935483870961</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="I25" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8235,15 +8287,15 @@
       <c r="A26" s="8">
         <v>15</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="13">
         <f>August!N28</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26" s="13">
         <f>October!W29</f>
@@ -8255,7 +8307,7 @@
       </c>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H26" s="28">
         <f t="shared" si="1"/>
@@ -8270,15 +8322,15 @@
       <c r="A27" s="8">
         <v>16</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="13">
         <f>August!N29</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E27" s="13">
         <f>October!W30</f>
@@ -8290,7 +8342,7 @@
       </c>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H27" s="28">
         <f t="shared" si="1"/>
@@ -8305,15 +8357,15 @@
       <c r="A28" s="8">
         <v>17</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="13">
         <f>August!N30</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E28" s="13">
         <f>October!W31</f>
@@ -8325,7 +8377,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H28" s="28">
         <f t="shared" si="1"/>
@@ -8340,15 +8392,15 @@
       <c r="A29" s="8">
         <v>18</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="13">
         <f>August!N31</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E29" s="13">
         <f>October!W32</f>
@@ -8360,11 +8412,11 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H29" s="28">
         <f t="shared" si="1"/>
-        <v>90.322580645161281</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="I29" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8375,15 +8427,15 @@
       <c r="A30" s="8">
         <v>19</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="13">
         <f>August!N32</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E30" s="13">
         <f>October!W33</f>
@@ -8395,7 +8447,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H30" s="28">
         <f t="shared" si="1"/>
@@ -8410,15 +8462,15 @@
       <c r="A31" s="8">
         <v>20</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="13">
         <f>August!N33</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E31" s="13">
         <f>October!W34</f>
@@ -8430,7 +8482,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H31" s="28">
         <f t="shared" si="1"/>
@@ -8445,15 +8497,15 @@
       <c r="A32" s="8">
         <v>21</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="13">
         <f>August!N34</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E32" s="13">
         <f>October!W35</f>
@@ -8465,7 +8517,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H32" s="28">
         <f t="shared" si="1"/>
@@ -8480,15 +8532,15 @@
       <c r="A33" s="8">
         <v>22</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="13">
         <f>August!N35</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" s="13">
         <f>October!W36</f>
@@ -8500,11 +8552,11 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H33" s="28">
         <f t="shared" si="1"/>
-        <v>67.741935483870961</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="I33" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8515,15 +8567,15 @@
       <c r="A34" s="8">
         <v>23</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="13">
         <f>August!N36</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" s="13">
         <f>October!W37</f>
@@ -8535,11 +8587,11 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H34" s="28">
         <f t="shared" si="1"/>
-        <v>67.741935483870961</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="I34" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8550,15 +8602,15 @@
       <c r="A35" s="8">
         <v>24</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="13">
         <f>August!N37</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E35" s="13">
         <f>October!W38</f>
@@ -8570,11 +8622,11 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H35" s="28">
         <f t="shared" si="1"/>
-        <v>90.322580645161281</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="I35" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8585,10 +8637,10 @@
       <c r="A36" s="8">
         <v>25</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="13">
@@ -8609,7 +8661,7 @@
       </c>
       <c r="H36" s="28">
         <f t="shared" si="1"/>
-        <v>51.612903225806448</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="I36" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8620,10 +8672,10 @@
       <c r="A37" s="8">
         <v>26</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="13">
@@ -8644,7 +8696,7 @@
       </c>
       <c r="H37" s="28">
         <f t="shared" si="1"/>
-        <v>58.064516129032263</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="I37" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8655,15 +8707,15 @@
       <c r="A38" s="8">
         <v>27</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="13">
         <f>August!N40</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E38" s="13">
         <f>October!W41</f>
@@ -8675,11 +8727,11 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="1"/>
-        <v>80.645161290322577</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="I38" s="29" t="str">
         <f t="shared" si="2"/>
@@ -8690,15 +8742,15 @@
       <c r="A39" s="8">
         <v>28</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="13">
         <f>August!N41</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" s="13">
         <f>October!W42</f>
@@ -8710,7 +8762,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="1"/>
@@ -8732,12 +8784,12 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="34"/>
+      <c r="C42" s="33"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="100" t="s">
+      <c r="F42" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="100"/>
+      <c r="G42" s="91"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -8752,6 +8804,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -8761,14 +8821,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
